--- a/group04/RTM/RTM_group4.xlsx
+++ b/group04/RTM/RTM_group4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d438d01b2a074ce0/Desktop/Sprint/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbharapa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{49021DF0-979F-4CD9-8B31-F416394DFEDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0C94ACA1-09F7-48C9-A011-50FCAD98E0D3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDBE388-7C5E-431D-B22C-92A43D3F0900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10704" yWindow="1104" windowWidth="12156" windowHeight="11136" xr2:uid="{F814BFD7-5A22-4D48-A3DC-09E443E064FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F814BFD7-5A22-4D48-A3DC-09E443E064FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,24 +48,6 @@
     <t>IT Mapping</t>
   </si>
   <si>
-    <t>DPMS_01</t>
-  </si>
-  <si>
-    <t>DPMS_02</t>
-  </si>
-  <si>
-    <t>DPMS_03</t>
-  </si>
-  <si>
-    <t>DPMS_04</t>
-  </si>
-  <si>
-    <t>DPMS_05</t>
-  </si>
-  <si>
-    <t>DPMS_06</t>
-  </si>
-  <si>
     <t>book_appointment</t>
   </si>
   <si>
@@ -90,12 +72,6 @@
     <t>doctor_file_maintenance</t>
   </si>
   <si>
-    <t>DPMS_07</t>
-  </si>
-  <si>
-    <t>DPMS_08</t>
-  </si>
-  <si>
     <t>9.1.1</t>
   </si>
   <si>
@@ -123,9 +99,6 @@
     <t>9.1.9</t>
   </si>
   <si>
-    <t>DPMS_09</t>
-  </si>
-  <si>
     <t>doctor_login</t>
   </si>
   <si>
@@ -145,6 +118,33 @@
   </si>
   <si>
     <t>IT_03</t>
+  </si>
+  <si>
+    <t>EDPMS_02</t>
+  </si>
+  <si>
+    <t>EDPMS_01</t>
+  </si>
+  <si>
+    <t>EDPMS_03</t>
+  </si>
+  <si>
+    <t>EDPMS_04</t>
+  </si>
+  <si>
+    <t>EDPMS_05</t>
+  </si>
+  <si>
+    <t>EDPMS_06</t>
+  </si>
+  <si>
+    <t>EDPMS_07</t>
+  </si>
+  <si>
+    <t>EDPMS_08</t>
+  </si>
+  <si>
+    <t>EDPMS_09</t>
   </si>
 </sst>
 </file>
@@ -508,18 +508,18 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" customWidth="1"/>
     <col min="4" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,121 +536,121 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E10" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
